--- a/rider/weekly/2017_17.xlsx
+++ b/rider/weekly/2017_17.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>264</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>251</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>218</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225.42</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.65</c:v>
+                  <c:v>218.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219.85</c:v>
+                  <c:v>211.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>237.08</c:v>
+                  <c:v>236.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240.88</c:v>
+                  <c:v>241.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.48</c:v>
+                  <c:v>113.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.31999999999999</c:v>
+                  <c:v>91.95999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>225.42</v>
+        <v>227</v>
       </c>
       <c r="E2">
         <v>116.59</v>
@@ -830,7 +830,7 @@
         <v>275</v>
       </c>
       <c r="D3">
-        <v>215.65</v>
+        <v>218.23</v>
       </c>
       <c r="E3">
         <v>116.75</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="D4">
-        <v>219.85</v>
+        <v>211.81</v>
       </c>
       <c r="E4">
         <v>116.91</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="D5">
-        <v>237.08</v>
+        <v>236.6</v>
       </c>
       <c r="E5">
         <v>117.08</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D6">
-        <v>240.88</v>
+        <v>241.77</v>
       </c>
       <c r="E6">
         <v>117.24</v>
@@ -898,7 +898,7 @@
         <v>87</v>
       </c>
       <c r="D7">
-        <v>112.48</v>
+        <v>113.15</v>
       </c>
       <c r="E7">
         <v>117.4</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>92.31999999999999</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="E8">
         <v>117.56</v>
